--- a/Week2_COVID_Economics/data/economics.xlsx
+++ b/Week2_COVID_Economics/data/economics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/posey/Documents/DatasetDaily/Week2_COVID_Economics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/posey/Documents/fundamentals-demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9993FA-AF75-C346-B6C8-F86665D24C67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD379F4D-5149-2A43-822A-6A1B0CC470C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="25240" windowHeight="19200" xr2:uid="{9BB05BFE-F291-F045-A641-3B3C563D29B0}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14540" windowHeight="19200" xr2:uid="{9BB05BFE-F291-F045-A641-3B3C563D29B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,43 +33,43 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>recession_probability</t>
-  </si>
-  <si>
     <t xml:space="preserve">NaN </t>
   </si>
   <si>
     <t>industrial_production_index</t>
   </si>
   <si>
-    <t>manufacturer_new_orders_consumer_goods</t>
-  </si>
-  <si>
-    <t>total_vehicle_sales</t>
-  </si>
-  <si>
-    <t>manufacturers_new_orders_durable_goods</t>
-  </si>
-  <si>
-    <t>unemployment_rate</t>
-  </si>
-  <si>
-    <t>credit_delinquency_rate</t>
-  </si>
-  <si>
-    <t>consumer_credit</t>
-  </si>
-  <si>
-    <t>total_employment</t>
-  </si>
-  <si>
-    <t>federal_funds_rate</t>
-  </si>
-  <si>
     <t>consumer_opinion</t>
   </si>
   <si>
-    <t>new_one_family_houses_sold</t>
+    <t>total_employment (thousands)</t>
+  </si>
+  <si>
+    <t>consumer_credit (billions of dollars)</t>
+  </si>
+  <si>
+    <t>credit_delinquency_rate (%)</t>
+  </si>
+  <si>
+    <t>unemployment_rate (%)</t>
+  </si>
+  <si>
+    <t>federal_funds_rate (%)</t>
+  </si>
+  <si>
+    <t>recession_probability (%)</t>
+  </si>
+  <si>
+    <t>manufacturers_new_orders_durable_goods (millions of dollars)</t>
+  </si>
+  <si>
+    <t>manufacturer_new_orders_consumer_goods (millions of dollars)</t>
+  </si>
+  <si>
+    <t>total_vehicle_sales (millions of units)</t>
+  </si>
+  <si>
+    <t>new_one_family_houses_sold (thousands)</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F2F781-1121-744D-9D56-5E8F770F23E9}">
   <dimension ref="A1:M977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I945" workbookViewId="0">
-      <selection activeCell="M978" sqref="M978"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,37 +466,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
         <v>14</v>
@@ -40501,7 +40501,7 @@
         <v>1</v>
       </c>
       <c r="I977" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J977" t="s">
         <v>1</v>
@@ -40510,10 +40510,10 @@
         <v>1</v>
       </c>
       <c r="L977" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M977" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
